--- a/fuentes/contenidos/grado05/guion03/EsqueletoGuion_MA_05_03_CO.xlsx
+++ b/fuentes/contenidos/grado05/guion03/EsqueletoGuion_MA_05_03_CO.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\guion3.5ºREEMPLAZAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\Matematicas\fuentes\contenidos\grado05\guion03\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20100" windowHeight="7230" tabRatio="729" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20100" windowHeight="7230" tabRatio="729" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="GUION" sheetId="1" r:id="rId1"/>
@@ -344,7 +344,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,19 +411,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -457,12 +450,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -913,7 +900,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -982,10 +969,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="401">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -2154,8 +2140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2186,8 +2172,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:3" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>59</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -2197,8 +2183,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:3" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>60</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -2220,7 +2206,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="30" t="s">
         <v>62</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -2263,8 +2249,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
         <v>66</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -2274,8 +2260,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
         <v>67</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -2285,8 +2271,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
         <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -2650,7 +2636,7 @@
       <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C22" t="s">
@@ -2780,8 +2766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" zoomScale="59" zoomScaleNormal="59" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="59" zoomScaleNormal="59" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3501,381 +3487,381 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" s="30" t="s">
+      <c r="A34" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
     </row>
     <row r="35" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="30" t="s">
+      <c r="A35" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="30" t="s">
+      <c r="C35" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
     </row>
     <row r="36" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" s="30" t="s">
+      <c r="A36" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="30" t="s">
+      <c r="C36" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30" t="s">
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="I36" s="30" t="s">
+      <c r="I36" s="29" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="B37" s="30" t="s">
+      <c r="A37" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30" t="s">
+      <c r="C37" s="29"/>
+      <c r="D37" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="E37" s="30" t="s">
+      <c r="E37" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
     </row>
     <row r="38" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="B38" s="30" t="s">
+      <c r="A38" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30" t="s">
+      <c r="C38" s="29"/>
+      <c r="D38" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="E38" s="30" t="s">
+      <c r="E38" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
     </row>
     <row r="39" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="B39" s="30" t="s">
+      <c r="A39" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30" t="s">
+      <c r="C39" s="29"/>
+      <c r="D39" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="E39" s="30" t="s">
+      <c r="E39" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
     </row>
     <row r="40" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="B40" s="30" t="s">
+      <c r="A40" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30" t="s">
+      <c r="C40" s="29"/>
+      <c r="D40" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="E40" s="30" t="s">
+      <c r="E40" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
     </row>
     <row r="41" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="B41" s="30" t="s">
+      <c r="A41" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30" t="s">
+      <c r="C41" s="29"/>
+      <c r="D41" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="E41" s="30" t="s">
+      <c r="E41" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
     </row>
     <row r="42" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="B42" s="30" t="s">
+      <c r="A42" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30" t="s">
+      <c r="C42" s="29"/>
+      <c r="D42" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="E42" s="30" t="s">
+      <c r="E42" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
     </row>
     <row r="43" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="B43" s="30" t="s">
+      <c r="A43" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30" t="s">
+      <c r="C43" s="29"/>
+      <c r="D43" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="E43" s="30" t="s">
+      <c r="E43" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
     </row>
     <row r="44" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="B44" s="30" t="s">
+      <c r="A44" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30" t="s">
+      <c r="C44" s="29"/>
+      <c r="D44" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="E44" s="30" t="s">
+      <c r="E44" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
     </row>
     <row r="45" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="B45" s="30" t="s">
+      <c r="A45" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30" t="s">
+      <c r="C45" s="29"/>
+      <c r="D45" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="E45" s="30" t="s">
+      <c r="E45" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
     </row>
     <row r="46" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="B46" s="30" t="s">
+      <c r="A46" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30" t="s">
+      <c r="C46" s="29"/>
+      <c r="D46" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="E46" s="30" t="s">
+      <c r="E46" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30" t="s">
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="I46" s="30" t="s">
+      <c r="I46" s="29" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="B47" s="30" t="s">
+      <c r="A47" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B47" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30" t="s">
+      <c r="C47" s="29"/>
+      <c r="D47" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="E47" s="30" t="s">
+      <c r="E47" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30" t="s">
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="I47" s="30" t="s">
+      <c r="I47" s="29" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="B48" s="30" t="s">
+      <c r="A48" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30" t="s">
+      <c r="C48" s="29"/>
+      <c r="D48" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="E48" s="30" t="s">
+      <c r="E48" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
     </row>
     <row r="49" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="B49" s="30" t="s">
+      <c r="A49" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30" t="s">
+      <c r="C49" s="29"/>
+      <c r="D49" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="E49" s="30" t="s">
+      <c r="E49" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30" t="s">
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="I49" s="30" t="s">
+      <c r="I49" s="29" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="B50" s="30" t="s">
+      <c r="A50" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B50" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30" t="s">
+      <c r="C50" s="29"/>
+      <c r="D50" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="E50" s="30" t="s">
+      <c r="E50" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30" t="s">
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="I50" s="30" t="s">
+      <c r="I50" s="29" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="B51" s="30" t="s">
+      <c r="A51" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30" t="s">
+      <c r="C51" s="29"/>
+      <c r="D51" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="E51" s="30" t="s">
+      <c r="E51" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F51" s="30"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="30"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
     </row>
     <row r="52" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="B52" s="30" t="s">
+      <c r="A52" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B52" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30" t="s">
+      <c r="C52" s="29"/>
+      <c r="D52" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="E52" s="30" t="s">
+      <c r="E52" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="F52" s="30"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="30" t="s">
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="I52" s="30" t="s">
+      <c r="I52" s="29" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4034,7 +4020,7 @@
       </c>
       <c r="F60" s="23"/>
       <c r="G60" s="23"/>
-      <c r="H60" s="29" t="s">
+      <c r="H60" s="23" t="s">
         <v>62</v>
       </c>
       <c r="I60" s="23" t="s">
